--- a/【小轮子】/【20180803】/sun_week_middle.xlsx
+++ b/【小轮子】/【20180803】/sun_week_middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\【20180803】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939E36DC-03E3-4A1A-87FE-975CF590733D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABDC9A-44CE-4892-BD0D-CD2568EB1284}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6015" xr2:uid="{821290A2-8780-450D-A4A7-4314F92BA6FD}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1554DD54-4AAF-48FB-8703-78372CA4C182}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E156"/>
+      <selection sqref="A1:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1022,13 +1022,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1.2857142857142858</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1085,12 +1085,12 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0.2</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1102,21 +1102,21 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.42857142857142855</v>
+        <v>0.2</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1124,16 +1124,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1221,12 +1221,12 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1238,12 +1238,12 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0.14285714285714285</v>
+        <v>0.75</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0.42857142857142855</v>
+        <v>0.6</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D56">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1396,41 +1396,41 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3.6666666666666665</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0.4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1464,16 +1464,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1481,16 +1481,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1668,13 +1668,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>0.66666666666666663</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1872,16 +1872,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1889,16 +1889,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>0.14285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1969,12 +1969,12 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1.1428571428571428</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1986,18 +1986,18 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>0</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="B95">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C96">
         <v>0.2857142857142857</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>0.16666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2054,38 +2054,38 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2178,19 +2178,19 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,15 +2204,15 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2326,12 +2326,12 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2394,12 +2394,12 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2450,7 +2450,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B133">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>2.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>0.7142857142857143</v>
+        <v>0.4</v>
       </c>
       <c r="B148">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>0.16666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>0.42857142857142855</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3037,9 +3037,26 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>0</v>
       </c>
     </row>
